--- a/biology/Microbiologie/Marinobacter_nauticus/Marinobacter_nauticus.xlsx
+++ b/biology/Microbiologie/Marinobacter_nauticus/Marinobacter_nauticus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Marinobacter nauticus est une espèce de bactérie marine à Gram négatif de la famille des Alteromonadaceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1992, Gauthier et al. décrivent le nouveau genre bactérien Marinobacter et son espèce-type Marinobacter hydrocarbonoclasticus sur la base de caractéristiques biochimiques et d'analyses ADN. Parmi ces dernières, l'analyse du gène 16S rRNA permet de démontrer que M. hydrocarbonoclasticus appartient aux Proteobacteria et au groupe des Gammaproteobacteria. La distance phylogénique est suffisante pour distinguer cette espèce des autres genres de ce groupe dont Pseudomonas et permettre de créer un nouveau genre et une nouvelle espèce[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1992, Gauthier et al. décrivent le nouveau genre bactérien Marinobacter et son espèce-type Marinobacter hydrocarbonoclasticus sur la base de caractéristiques biochimiques et d'analyses ADN. Parmi ces dernières, l'analyse du gène 16S rRNA permet de démontrer que M. hydrocarbonoclasticus appartient aux Proteobacteria et au groupe des Gammaproteobacteria. La distance phylogénique est suffisante pour distinguer cette espèce des autres genres de ce groupe dont Pseudomonas et permettre de créer un nouveau genre et une nouvelle espèce.
 </t>
         </is>
       </c>
@@ -542,16 +556,12 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le nom correct complet (avec auteur) de ce taxon est Marinobacter nauticus (Baumann et al., 1972) Tindall, 2020[2].
-Étymologie
-L'étymologie de cette espèce M. nauticus est la suivante : nau’ti.cus. L. masc. adj. nauticus, nautique, appartenant à la mer[3]. Le nouveau nom a été validé également en 2020 par l'ICSP[4].
-Synonymes
-Marinobacter nauticus a pour synonymes[2] :
-Marinobacter aquaeolei Nguyen et al., 1999
-Marinobacter hydrocarbonoclasticus Gauthier et al., 1992
-Pseudomonas nautica Baumann et al., 1972[5]</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Marinobacter nauticus (Baumann et al., 1972) Tindall, 2020.
+</t>
         </is>
       </c>
     </row>
@@ -576,12 +586,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Phylogénie</t>
+          <t>Taxonomie</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">L'analyse phylogénique des séquences du 16S rRNA de 500 espèces bactériennes a permis de montrer que l'espèce M. hydrocarbonoclasticus est distincte des espèces Pseudomonas aeruginosa, Marinomonas vaga, Oceanospirillum linum et Halomonas elongata[1].
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'étymologie de cette espèce M. nauticus est la suivante : nau’ti.cus. L. masc. adj. nauticus, nautique, appartenant à la mer. Le nouveau nom a été validé également en 2020 par l'ICSP.
 </t>
         </is>
       </c>
@@ -607,10 +623,84 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Marinobacter nauticus a pour synonymes :
+Marinobacter aquaeolei Nguyen et al., 1999
+Marinobacter hydrocarbonoclasticus Gauthier et al., 1992
+Pseudomonas nautica Baumann et al., 1972</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Marinobacter_nauticus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marinobacter_nauticus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Phylogénie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'analyse phylogénique des séquences du 16S rRNA de 500 espèces bactériennes a permis de montrer que l'espèce M. hydrocarbonoclasticus est distincte des espèces Pseudomonas aeruginosa, Marinomonas vaga, Oceanospirillum linum et Halomonas elongata.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Marinobacter_nauticus</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marinobacter_nauticus</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
